--- a/selenium-lab-main/Planilha_de_planejamento_de_testes.xlsx
+++ b/selenium-lab-main/Planilha_de_planejamento_de_testes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36129382023.2n\Pictures\selenium-lab-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36129382023.2n\Pictures\ProvaClayton\selenium-lab-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E0F44-5082-4D8D-9591-BF6CA7E7B3AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFB3A5-3690-4F7D-B020-6E3961C3D50F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ord</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Trocar a mensagem de erro: campo "usuário" por "e-mail"</t>
   </si>
   <si>
-    <t>Padronizar maiúsculas e minúsculas na tabela de Produtos</t>
-  </si>
-  <si>
-    <t>Padronizar idioma em Português na tabela de Produtos</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -135,6 +129,12 @@
   <si>
     <t>Fazer login e depois retornar (sair)</t>
   </si>
+  <si>
+    <t>Aluno:</t>
+  </si>
+  <si>
+    <t>Matheus dos Anjos de Oliveira</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +161,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +186,26 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,22 +228,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -260,10 +267,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,6 +353,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3774,36 +3793,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
@@ -3813,145 +3826,147 @@
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="12">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D8" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="15">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="12">
-        <v>3</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
+    </row>
+    <row r="10" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="21">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="19">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="15">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="21">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="21">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="15">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="15" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="19">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="15">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="21">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="15">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="15">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="15">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="15">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>21</v>
+      <c r="D17" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
